--- a/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
+++ b/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="781">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -469,7 +469,172 @@
     <t xml:space="preserve">type_tax_use</t>
   </si>
   <si>
-    <t xml:space="preserve">fatturapa.fiscal_position</t>
+    <t xml:space="preserve">ir.model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.partner.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date.range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project.task.materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project.task.material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.fiscalyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.fiscal.year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.incoterms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.incoterms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.holidays.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.leave.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.attribute.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.template.attribute.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.attribute.price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.template.attribute.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair.fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template.option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procurement.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.uom.categ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.uom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.uom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule.lead.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation.lead.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule.line.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation.line.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.actions.report.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.actions.report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.payment.line'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.pack.operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.move.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.picking.wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.picking.batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.tax.kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italy.ade.tax.nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.model.data</t>
   </si>
   <si>
     <t xml:space="preserve">xref</t>
@@ -589,178 +754,22 @@
     <t xml:space="preserve">l10n_it_einvoice_base.fatturapa_RF19</t>
   </si>
   <si>
-    <t xml:space="preserve">ir.model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.partner.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date.range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project.task.materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project.task.material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.fiscalyear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.fiscal.year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.incoterms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.incoterms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.holidays.status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.leave.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.attribute.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.template.attribute.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.attribute.price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.template.attribute.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair.fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template.option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procurement.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.uom.categ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.uom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.uom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule.lead.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation.lead.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule.line.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation.line.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.actions.report.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.actions.report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.payment.line'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment.order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.pack.operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.move.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.picking.wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.picking.batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.tax.kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italy.ade.tax.nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.model.data</t>
+    <t xml:space="preserve">product.product_uom_kgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_kgm</t>
   </si>
   <si>
     <t xml:space="preserve">product.product_uom_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">uom.product_uom_unit</t>
+    <t xml:space="preserve">uom.product_uom_ton</t>
   </si>
   <si>
     <t xml:space="preserve">account.data_account_type_asset</t>
@@ -1981,6 +1990,18 @@
     <t xml:space="preserve">account_payment_term_plus</t>
   </si>
   <si>
+    <t xml:space="preserve">ir.ui.view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view_account_config_settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res_config_settings_view_form</t>
+  </si>
+  <si>
     <t xml:space="preserve">payment_mode</t>
   </si>
   <si>
@@ -2036,6 +2057,39 @@
   </si>
   <si>
     <t xml:space="preserve">province_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_member_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_liquidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_liquidation_state</t>
   </si>
   <si>
     <t xml:space="preserve">res.groups</t>
@@ -2318,7 +2372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2369,6 +2423,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2412,7 +2473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2430,6 +2491,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2513,19 +2578,19 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N76" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N408" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A413" activeCellId="0" sqref="A413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.3"/>
@@ -3930,13 +3995,9 @@
         <v>150</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F87" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="N87" s="3" t="s">
+      <c r="E87" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3945,16 +4006,12 @@
         <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J88" s="2"/>
-      <c r="N88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3963,16 +4020,12 @@
         <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F89" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J89" s="2"/>
-      <c r="N89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3981,16 +4034,12 @@
         <v>149</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="N90" s="3" t="s">
+      <c r="J90" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3999,16 +4048,12 @@
         <v>149</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F91" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="N91" s="3" t="s">
+      <c r="J91" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4017,16 +4062,12 @@
         <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F92" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="N92" s="3" t="s">
+      <c r="J92" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4035,16 +4076,12 @@
         <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J93" s="2"/>
-      <c r="N93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4053,16 +4090,12 @@
         <v>149</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J94" s="2"/>
-      <c r="N94" s="3" t="s">
+      <c r="J94" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4071,16 +4104,12 @@
         <v>149</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="N95" s="3" t="s">
+      <c r="J95" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4089,16 +4118,12 @@
         <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J96" s="2"/>
-      <c r="N96" s="3" t="s">
+      <c r="J96" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4107,16 +4132,12 @@
         <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="N97" s="3" t="s">
+      <c r="J97" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4125,16 +4146,12 @@
         <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="N98" s="3" t="s">
+      <c r="J98" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4143,16 +4160,12 @@
         <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F99" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="N99" s="3" t="s">
+      <c r="J99" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4161,16 +4174,12 @@
         <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F100" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="N100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4179,16 +4188,12 @@
         <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F101" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="N101" s="3" t="s">
+      <c r="J101" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4197,16 +4202,12 @@
         <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F102" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="N102" s="3" t="s">
+      <c r="J102" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4215,16 +4216,12 @@
         <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="N103" s="3" t="s">
+      <c r="J103" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4233,16 +4230,12 @@
         <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="N104" s="3" t="s">
+      <c r="J104" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4251,448 +4244,520 @@
         <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="N105" s="3" t="s">
+      <c r="I105" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>206</v>
+        <v>141</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="N114" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="N115" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="N116" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="N117" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="N118" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="N119" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="N120" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="N121" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="N122" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="N123" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="N124" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="N125" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="N126" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="N127" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="N128" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="N129" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="2"/>
+      <c r="N130" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" s="2"/>
+      <c r="N131" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q132" s="1" t="s">
+      <c r="J132" s="2"/>
+      <c r="N132" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F135" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>250</v>
@@ -4703,241 +4768,241 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V142" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="V144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="V146" s="2" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V147" s="2" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V148" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V149" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>284</v>
@@ -4948,38 +5013,38 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>286</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>289</v>
@@ -4990,108 +5055,108 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>291</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>298</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>301</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>302</v>
@@ -5102,630 +5167,630 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>262</v>
+      <c r="H165" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>262</v>
+      <c r="H166" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="V168" s="4"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>309</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="G170" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="J170" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="V170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>314</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>315</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J175" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G178" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>262</v>
+      <c r="J179" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>327</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>331</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>334</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>337</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>338</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>346</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="V200" s="2" t="s">
         <v>349</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="V201" s="2" t="s">
-        <v>351</v>
+      <c r="G201" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V202" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V203" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="S203" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>280</v>
+      <c r="S205" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>363</v>
@@ -5736,24 +5801,24 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>294</v>
+      <c r="G210" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>366</v>
@@ -5764,52 +5829,52 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>369</v>
+      <c r="I212" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>373</v>
@@ -5820,10 +5885,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>375</v>
@@ -5834,94 +5899,94 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>376</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>266</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>378</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>386</v>
@@ -5932,450 +5997,438 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>388</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>391</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>296</v>
+        <v>393</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>147</v>
+        <v>396</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G231" s="1"/>
-      <c r="J231" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="S231" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="V231" s="4"/>
+      <c r="G231" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G232" s="1"/>
-      <c r="J232" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="S232" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="V232" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="J233" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="S233" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H233" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="V233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="J234" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="S234" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H234" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="V234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H235" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H236" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D237" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H237" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H238" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H239" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="V242" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="V244" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D247" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H247" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H248" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H249" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="M250" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q250" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="R250" s="2" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q251" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y251" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H252" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q252" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="Q252" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y252" s="1" t="s">
+      <c r="R252" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>141</v>
@@ -6383,23 +6436,28 @@
       <c r="H253" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="V253" s="2"/>
+      <c r="Q253" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="Y253" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="Y254" s="1" t="s">
         <v>141</v>
@@ -6407,314 +6465,315 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V255" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="V255" s="2"/>
+      <c r="Y255" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q256" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y256" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>443</v>
+        <v>141</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="M257" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V257" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H258" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H258" s="2" t="s">
-        <v>446</v>
+      <c r="Q258" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V258" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D259" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H259" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="H259" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I260" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>450</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>451</v>
+        <v>141</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>452</v>
       </c>
+      <c r="I262" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D264" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H264" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D265" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H265" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D266" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H266" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="H266" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H267" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="H267" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>464</v>
+        <v>294</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D270" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H270" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H270" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H272" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J272" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>141</v>
+        <v>472</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M274" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V274" s="2" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>473</v>
@@ -6725,80 +6784,86 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D276" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J276" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>476</v>
+      <c r="M276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V276" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D277" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J277" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="J277" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D278" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J278" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="J278" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J279" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="J279" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J280" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="J280" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>484</v>
@@ -6809,1639 +6874,1633 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>486</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>487</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D283" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J283" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="J283" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D284" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J284" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="J284" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>491</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>303</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G286" s="1" t="s">
         <v>493</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>495</v>
+      <c r="J287" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G288" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D289" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G289" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D290" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G290" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D291" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D292" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>263</v>
+        <v>505</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>507</v>
+        <v>330</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>508</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D296" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D297" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="V298" s="2" t="s">
+      <c r="G298" s="1" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>514</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>515</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D300" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V300" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D301" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I301" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I302" s="1" t="s">
+      <c r="G302" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>521</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>522</v>
+        <v>344</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D304" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I304" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D305" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I305" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D306" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D307" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="I307" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D308" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I308" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D309" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I309" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="I309" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D310" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D311" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I311" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D312" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q313" s="1" t="s">
         <v>540</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q314" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="V315" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q315" s="1" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D316" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q316" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="I316" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I317" s="1" t="s">
         <v>545</v>
+      </c>
+      <c r="V317" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G318" s="1" t="s">
         <v>547</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D319" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I319" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I320" s="1" t="s">
+      <c r="G320" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="I321" s="1" t="s">
-        <v>552</v>
+      <c r="G321" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D322" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I322" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D323" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I323" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D324" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D325" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D326" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D327" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I327" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D328" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I328" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D329" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D330" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I330" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D331" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D332" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>574</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>102</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G335" s="1" t="s">
-        <v>578</v>
+      <c r="I335" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D336" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I336" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D337" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G338" s="1" t="s">
+      <c r="I338" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>585</v>
+      <c r="I339" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D340" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="I340" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D341" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D342" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I342" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I343" s="1" t="s">
+      <c r="G343" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>595</v>
+        <v>364</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>596</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D348" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D349" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D350" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D351" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I351" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D352" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>387</v>
+        <v>607</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>610</v>
+        <v>390</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D356" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G356" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D357" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D358" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="I358" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I359" s="1" t="s">
-        <v>601</v>
+      <c r="G359" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>618</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>620</v>
+      <c r="I361" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>620</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I363" s="1" t="s">
-        <v>294</v>
+        <v>622</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>625</v>
+      <c r="I365" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D366" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I366" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="I366" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D367" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G367" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="I367" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D368" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I368" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="I368" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D369" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I369" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D370" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I370" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="I370" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D371" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G371" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D372" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="I372" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="I372" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I373" s="1" t="s">
+      <c r="G373" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>641</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>642</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>268</v>
+        <v>643</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>640</v>
+        <v>316</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>647</v>
+        <v>317</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>296</v>
+        <v>643</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G381" s="1" t="s">
+      <c r="I381" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>651</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="V383" s="2" t="s">
         <v>652</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>653</v>
+        <v>263</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F384" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>654</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>653</v>
+        <v>263</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V385" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G386" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="386" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="J386" s="4" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D387" s="2" t="s">
-        <v>120</v>
+      <c r="F387" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>656</v>
+        <v>195</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>659</v>
+        <v>112</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>661</v>
+        <v>114</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>123</v>
+        <v>663</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>123</v>
@@ -8450,15 +8509,15 @@
         <v>34</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>664</v>
+        <v>147</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>123</v>
@@ -8467,12 +8526,15 @@
         <v>34</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>123</v>
@@ -8481,12 +8543,12 @@
         <v>34</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>123</v>
@@ -8495,15 +8557,15 @@
         <v>34</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>123</v>
@@ -8512,15 +8574,12 @@
         <v>34</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G403" s="1" t="s">
-        <v>147</v>
+        <v>672</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>123</v>
@@ -8534,7 +8593,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>123</v>
@@ -8543,12 +8602,15 @@
         <v>34</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>662</v>
+        <v>673</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>123</v>
@@ -8557,7 +8619,7 @@
         <v>34</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>147</v>
@@ -8565,7 +8627,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>123</v>
@@ -8574,15 +8636,12 @@
         <v>34</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>147</v>
+        <v>675</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>123</v>
@@ -8591,354 +8650,456 @@
         <v>34</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>671</v>
+      <c r="G409" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>674</v>
+      <c r="G410" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>675</v>
+        <v>123</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B412" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D412" s="2" t="s">
+      <c r="B413" s="4"/>
+      <c r="C413" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="E412" s="1" t="s">
+      <c r="I413" s="4"/>
+      <c r="J413" s="4" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B413" s="2" t="s">
+      <c r="K413" s="4"/>
+      <c r="L413" s="4"/>
+      <c r="M413" s="4"/>
+      <c r="N413" s="4"/>
+      <c r="O413" s="4"/>
+      <c r="P413" s="4"/>
+      <c r="Q413" s="4"/>
+      <c r="R413" s="4"/>
+      <c r="S413" s="4"/>
+      <c r="T413" s="4"/>
+      <c r="U413" s="4"/>
+      <c r="V413" s="4"/>
+      <c r="W413" s="4"/>
+      <c r="X413" s="4"/>
+      <c r="Y413" s="4"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B414" s="4"/>
+      <c r="C414" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D413" s="2" t="s">
+      <c r="I414" s="4"/>
+      <c r="J414" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G413" s="1" t="s">
+      <c r="K414" s="4"/>
+      <c r="L414" s="4"/>
+      <c r="M414" s="4"/>
+      <c r="N414" s="4"/>
+      <c r="O414" s="4"/>
+      <c r="P414" s="4"/>
+      <c r="Q414" s="4"/>
+      <c r="R414" s="4"/>
+      <c r="S414" s="4"/>
+      <c r="T414" s="4"/>
+      <c r="U414" s="4"/>
+      <c r="V414" s="4"/>
+      <c r="W414" s="4"/>
+      <c r="X414" s="4"/>
+      <c r="Y414" s="4"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B415" s="4"/>
+      <c r="C415" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="I415" s="4"/>
+      <c r="J415" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D414" s="2" t="s">
+      <c r="K415" s="4"/>
+      <c r="L415" s="4"/>
+      <c r="M415" s="4"/>
+      <c r="N415" s="4"/>
+      <c r="O415" s="4"/>
+      <c r="P415" s="4"/>
+      <c r="Q415" s="4"/>
+      <c r="R415" s="4"/>
+      <c r="S415" s="4"/>
+      <c r="T415" s="4"/>
+      <c r="U415" s="4"/>
+      <c r="V415" s="4"/>
+      <c r="W415" s="4"/>
+      <c r="X415" s="4"/>
+      <c r="Y415" s="4"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B416" s="4"/>
+      <c r="C416" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="F414" s="2" t="s">
+      <c r="I416" s="4"/>
+      <c r="J416" s="4" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="K416" s="4"/>
+      <c r="L416" s="4"/>
+      <c r="M416" s="4"/>
+      <c r="N416" s="4"/>
+      <c r="O416" s="4"/>
+      <c r="P416" s="4"/>
+      <c r="Q416" s="4"/>
+      <c r="R416" s="4"/>
+      <c r="S416" s="4"/>
+      <c r="T416" s="4"/>
+      <c r="U416" s="4"/>
+      <c r="V416" s="4"/>
+      <c r="W416" s="4"/>
+      <c r="X416" s="4"/>
+      <c r="Y416" s="4"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B417" s="4"/>
+      <c r="C417" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D415" s="2" t="s">
+      <c r="I417" s="4"/>
+      <c r="J417" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F415" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="K417" s="4"/>
+      <c r="L417" s="4"/>
+      <c r="M417" s="4"/>
+      <c r="N417" s="4"/>
+      <c r="O417" s="4"/>
+      <c r="P417" s="4"/>
+      <c r="Q417" s="4"/>
+      <c r="R417" s="4"/>
+      <c r="S417" s="4"/>
+      <c r="T417" s="4"/>
+      <c r="U417" s="4"/>
+      <c r="V417" s="4"/>
+      <c r="W417" s="4"/>
+      <c r="X417" s="4"/>
+      <c r="Y417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E422" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>725</v>
+        <v>1</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>726</v>
@@ -8946,331 +9107,328 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="G432" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>731</v>
+        <v>701</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>734</v>
+      <c r="D436" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D437" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="G437" s="1" t="s">
-        <v>736</v>
+      <c r="E437" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>2</v>
+        <v>744</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D444" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="E444" s="1" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>746</v>
+        <v>152</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>746</v>
+        <v>152</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D446" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>94</v>
+      <c r="E446" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>662</v>
+        <v>26</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>665</v>
+        <v>757</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>661</v>
+        <v>759</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="G451" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>102</v>
+        <v>762</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>123</v>
+        <v>764</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>668</v>
+        <v>765</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>123</v>
+        <v>764</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>123</v>
@@ -9279,26 +9437,26 @@
         <v>34</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>102</v>
+        <v>669</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9307,15 +9465,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9324,15 +9479,15 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H458" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G458" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9341,12 +9496,15 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>662</v>
+        <v>768</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9355,12 +9513,15 @@
         <v>34</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>665</v>
+        <v>769</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9369,46 +9530,314 @@
         <v>34</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>760</v>
+        <v>771</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G464" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="466" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E466" s="0"/>
+      <c r="F466" s="0"/>
+      <c r="G466" s="0"/>
+      <c r="H466" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I466" s="0"/>
+      <c r="J466" s="0"/>
+      <c r="K466" s="0"/>
+      <c r="L466" s="0"/>
+      <c r="M466" s="0"/>
+      <c r="N466" s="0"/>
+      <c r="O466" s="0"/>
+      <c r="P466" s="0"/>
+      <c r="Q466" s="0"/>
+      <c r="R466" s="0"/>
+      <c r="S466" s="0"/>
+      <c r="T466" s="0"/>
+      <c r="U466" s="0"/>
+      <c r="V466" s="0"/>
+      <c r="W466" s="0"/>
+      <c r="X466" s="0"/>
+      <c r="Y466" s="0"/>
+    </row>
+    <row r="467" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E467" s="0"/>
+      <c r="F467" s="0"/>
+      <c r="G467" s="0"/>
+      <c r="H467" s="0"/>
+      <c r="I467" s="0"/>
+      <c r="J467" s="0"/>
+      <c r="K467" s="0"/>
+      <c r="L467" s="0"/>
+      <c r="M467" s="0"/>
+      <c r="N467" s="0"/>
+      <c r="O467" s="0"/>
+      <c r="P467" s="0"/>
+      <c r="Q467" s="0"/>
+      <c r="R467" s="0"/>
+      <c r="S467" s="0"/>
+      <c r="T467" s="0"/>
+      <c r="U467" s="0"/>
+      <c r="V467" s="0"/>
+      <c r="W467" s="0"/>
+      <c r="X467" s="0"/>
+      <c r="Y467" s="0"/>
+    </row>
+    <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E468" s="0"/>
+      <c r="F468" s="0"/>
+      <c r="G468" s="0"/>
+      <c r="H468" s="0"/>
+      <c r="I468" s="0"/>
+      <c r="J468" s="0"/>
+      <c r="K468" s="0"/>
+      <c r="L468" s="0"/>
+      <c r="M468" s="0"/>
+      <c r="N468" s="0"/>
+      <c r="O468" s="0"/>
+      <c r="P468" s="0"/>
+      <c r="Q468" s="0"/>
+      <c r="R468" s="0"/>
+      <c r="S468" s="0"/>
+      <c r="T468" s="0"/>
+      <c r="U468" s="0"/>
+      <c r="V468" s="0"/>
+      <c r="W468" s="0"/>
+      <c r="X468" s="0"/>
+      <c r="Y468" s="0"/>
+    </row>
+    <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E469" s="0"/>
+      <c r="F469" s="0"/>
+      <c r="G469" s="0"/>
+      <c r="H469" s="0"/>
+      <c r="I469" s="0"/>
+      <c r="J469" s="0"/>
+      <c r="K469" s="0"/>
+      <c r="L469" s="0"/>
+      <c r="M469" s="0"/>
+      <c r="N469" s="0"/>
+      <c r="O469" s="0"/>
+      <c r="P469" s="0"/>
+      <c r="Q469" s="0"/>
+      <c r="R469" s="0"/>
+      <c r="S469" s="0"/>
+      <c r="T469" s="0"/>
+      <c r="U469" s="0"/>
+      <c r="V469" s="0"/>
+      <c r="W469" s="0"/>
+      <c r="X469" s="0"/>
+      <c r="Y469" s="0"/>
+    </row>
+    <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B470" s="0"/>
+      <c r="C470" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E470" s="0"/>
+      <c r="F470" s="0"/>
+      <c r="G470" s="0"/>
+      <c r="H470" s="0"/>
+      <c r="I470" s="0"/>
+      <c r="J470" s="0"/>
+      <c r="K470" s="0"/>
+      <c r="L470" s="0"/>
+      <c r="M470" s="0"/>
+      <c r="N470" s="0"/>
+      <c r="O470" s="0"/>
+      <c r="P470" s="0"/>
+      <c r="Q470" s="0"/>
+      <c r="R470" s="0"/>
+      <c r="S470" s="0"/>
+      <c r="T470" s="0"/>
+      <c r="U470" s="0"/>
+      <c r="V470" s="0"/>
+      <c r="W470" s="0"/>
+      <c r="X470" s="0"/>
+      <c r="Y470" s="0"/>
+    </row>
+    <row r="471" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B471" s="0"/>
+      <c r="C471" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E471" s="0"/>
+      <c r="F471" s="0"/>
+      <c r="G471" s="0"/>
+      <c r="H471" s="0"/>
+      <c r="I471" s="0"/>
+      <c r="J471" s="0"/>
+      <c r="K471" s="0"/>
+      <c r="L471" s="0"/>
+      <c r="M471" s="0"/>
+      <c r="N471" s="0"/>
+      <c r="O471" s="0"/>
+      <c r="P471" s="0"/>
+      <c r="Q471" s="0"/>
+      <c r="R471" s="0"/>
+      <c r="S471" s="0"/>
+      <c r="T471" s="0"/>
+      <c r="U471" s="0"/>
+      <c r="V471" s="0"/>
+      <c r="W471" s="0"/>
+      <c r="X471" s="0"/>
+      <c r="Y471" s="0"/>
+    </row>
+    <row r="472" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B472" s="0"/>
+      <c r="C472" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E472" s="0"/>
+      <c r="F472" s="0"/>
+      <c r="G472" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H472" s="0"/>
+      <c r="I472" s="0"/>
+      <c r="J472" s="0"/>
+      <c r="K472" s="0"/>
+      <c r="L472" s="0"/>
+      <c r="M472" s="0"/>
+      <c r="N472" s="0"/>
+      <c r="O472" s="0"/>
+      <c r="P472" s="0"/>
+      <c r="Q472" s="0"/>
+      <c r="R472" s="0"/>
+      <c r="S472" s="0"/>
+      <c r="T472" s="0"/>
+      <c r="U472" s="0"/>
+      <c r="V472" s="0"/>
+      <c r="W472" s="0"/>
+      <c r="X472" s="0"/>
+      <c r="Y472" s="0"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
+++ b/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="783">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -809,6 +809,12 @@
   </si>
   <si>
     <t xml:space="preserve">base_report_to_printer.printing_group_manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.partner_root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.partner_admin</t>
   </si>
   <si>
     <t xml:space="preserve">ir.module.module</t>
@@ -2578,12 +2584,12 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N408" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N117" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A413" activeCellId="0" sqref="A413"/>
+      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
@@ -4852,21 +4858,22 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="G143" s="1"/>
+      <c r="J143" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>150</v>
@@ -4877,11 +4884,10 @@
       <c r="H144" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="V144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>150</v>
@@ -4892,10 +4898,11 @@
       <c r="H145" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="V145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>150</v>
@@ -4909,7 +4916,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>150</v>
@@ -4923,24 +4930,21 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="V148" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>150</v>
@@ -4957,21 +4961,24 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="V150" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>150</v>
@@ -4985,7 +4992,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>150</v>
@@ -4999,7 +5006,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>150</v>
@@ -5013,7 +5020,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>150</v>
@@ -5022,26 +5029,26 @@
         <v>286</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>150</v>
@@ -5055,7 +5062,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>150</v>
@@ -5064,26 +5071,26 @@
         <v>291</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>150</v>
@@ -5097,7 +5104,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>150</v>
@@ -5111,7 +5118,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>150</v>
@@ -5125,7 +5132,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>150</v>
@@ -5134,40 +5141,40 @@
         <v>300</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>150</v>
@@ -5176,26 +5183,26 @@
         <v>304</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>150</v>
@@ -5203,59 +5210,55 @@
       <c r="D167" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>265</v>
+      <c r="H167" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G170" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J170" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>150</v>
@@ -5263,55 +5266,59 @@
       <c r="D171" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="G171" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="J171" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="V171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>150</v>
@@ -5320,32 +5327,32 @@
         <v>317</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J176" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>102</v>
@@ -5353,49 +5360,49 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G180" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>150</v>
@@ -5404,54 +5411,54 @@
         <v>324</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>150</v>
@@ -5460,54 +5467,54 @@
         <v>329</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>150</v>
@@ -5521,7 +5528,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>150</v>
@@ -5530,40 +5537,40 @@
         <v>336</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>150</v>
@@ -5572,54 +5579,54 @@
         <v>340</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>150</v>
@@ -5628,40 +5635,40 @@
         <v>345</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>150</v>
@@ -5670,40 +5677,40 @@
         <v>349</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="V202" s="2" t="s">
         <v>352</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>150</v>
@@ -5717,7 +5724,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>150</v>
@@ -5725,13 +5732,13 @@
       <c r="D204" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="V204" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>150</v>
@@ -5739,13 +5746,13 @@
       <c r="D205" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="S205" s="1" t="s">
+      <c r="F205" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>150</v>
@@ -5753,41 +5760,41 @@
       <c r="D206" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>344</v>
+      <c r="S206" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>150</v>
@@ -5801,7 +5808,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>150</v>
@@ -5810,26 +5817,26 @@
         <v>365</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>150</v>
@@ -5837,27 +5844,27 @@
       <c r="D212" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I212" s="1" t="s">
-        <v>297</v>
+      <c r="G212" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G213" s="1" t="s">
         <v>370</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>150</v>
@@ -5871,7 +5878,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>150</v>
@@ -5885,7 +5892,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>150</v>
@@ -5894,26 +5901,26 @@
         <v>375</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>150</v>
@@ -5922,40 +5929,40 @@
         <v>378</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>150</v>
@@ -5969,7 +5976,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>150</v>
@@ -5983,7 +5990,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>150</v>
@@ -5997,7 +6004,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>150</v>
@@ -6006,26 +6013,26 @@
         <v>388</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>150</v>
@@ -6039,7 +6046,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>150</v>
@@ -6047,105 +6054,100 @@
       <c r="D227" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I227" s="1" t="s">
-        <v>299</v>
+      <c r="G227" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>299</v>
+        <v>395</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>147</v>
+        <v>399</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>399</v>
+        <v>150</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G233" s="1"/>
-      <c r="J233" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="S233" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="V233" s="4"/>
+      <c r="I233" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>141</v>
@@ -6161,24 +6163,29 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="J235" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="S235" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="V235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>406</v>
@@ -6189,10 +6196,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>408</v>
@@ -6203,10 +6210,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>410</v>
@@ -6217,10 +6224,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>412</v>
@@ -6231,10 +6238,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>414</v>
@@ -6245,10 +6252,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>416</v>
@@ -6259,10 +6266,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>418</v>
@@ -6273,55 +6280,55 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="V244" s="2" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="V245" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>425</v>
@@ -6332,10 +6339,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>427</v>
@@ -6346,10 +6353,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>429</v>
@@ -6360,10 +6367,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>431</v>
@@ -6374,10 +6381,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>433</v>
@@ -6388,10 +6395,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>435</v>
@@ -6402,33 +6409,24 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>141</v>
+        <v>437</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="M252" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q252" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="R252" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>141</v>
@@ -6436,19 +6434,22 @@
       <c r="H253" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="M253" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="Q253" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="Y253" s="1" t="s">
+      <c r="R253" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>141</v>
@@ -6457,7 +6458,7 @@
         <v>441</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>141</v>
+        <v>442</v>
       </c>
       <c r="Y254" s="1" t="s">
         <v>141</v>
@@ -6465,73 +6466,73 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="V255" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="Y255" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>443</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="V256" s="2"/>
       <c r="Y256" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V257" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y257" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q258" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>141</v>
       </c>
       <c r="V258" s="2" t="s">
@@ -6540,24 +6541,30 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="Q259" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V259" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>448</v>
@@ -6568,10 +6575,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>450</v>
@@ -6582,55 +6589,55 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>367</v>
+        <v>454</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>456</v>
@@ -6641,10 +6648,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>458</v>
@@ -6655,10 +6662,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>460</v>
@@ -6669,10 +6676,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>462</v>
@@ -6683,41 +6690,41 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>464</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>467</v>
@@ -6725,10 +6732,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>468</v>
@@ -6739,10 +6746,10 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>470</v>
@@ -6753,75 +6760,75 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J274" s="2" t="s">
-        <v>311</v>
+      <c r="H274" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>474</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V276" s="2" t="s">
-        <v>141</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>476</v>
+        <v>141</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="M277" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V277" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>478</v>
@@ -6832,10 +6839,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>480</v>
@@ -6846,10 +6853,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>482</v>
@@ -6860,10 +6867,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>484</v>
@@ -6874,38 +6881,38 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>486</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>295</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>488</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>489</v>
@@ -6916,10 +6923,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>491</v>
@@ -6930,52 +6937,52 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>493</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G288" s="1" t="s">
         <v>496</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>497</v>
@@ -6986,10 +6993,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>499</v>
@@ -7000,10 +7007,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>501</v>
@@ -7014,10 +7021,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>503</v>
@@ -7028,66 +7035,66 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I293" s="1" t="s">
+      <c r="G293" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>507</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>265</v>
+        <v>508</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>266</v>
+        <v>509</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>509</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>510</v>
@@ -7098,10 +7105,10 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>512</v>
@@ -7112,94 +7119,94 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I299" s="1" t="s">
-        <v>265</v>
+      <c r="G299" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="V300" s="2" t="s">
         <v>516</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I301" s="1" t="s">
+      <c r="V301" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G302" s="1" t="s">
+      <c r="I302" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I303" s="1" t="s">
-        <v>344</v>
+      <c r="G303" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>524</v>
@@ -7210,24 +7217,24 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G306" s="1" t="s">
+      <c r="I306" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>528</v>
@@ -7238,24 +7245,24 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="I308" s="1" t="s">
+      <c r="G308" s="1" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>532</v>
@@ -7266,52 +7273,52 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="I310" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="I311" s="1" t="s">
+      <c r="G311" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G312" s="1" t="s">
+      <c r="I312" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>540</v>
@@ -7322,136 +7329,136 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F314" s="2" t="s">
-        <v>356</v>
+      <c r="G314" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q315" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>353</v>
       </c>
       <c r="Q316" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="V317" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q317" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>344</v>
+      <c r="V318" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>447</v>
+        <v>549</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>548</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G320" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I320" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>551</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="I322" s="1" t="s">
         <v>553</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>554</v>
@@ -7462,24 +7469,24 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="I324" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>558</v>
@@ -7490,10 +7497,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>560</v>
@@ -7504,24 +7511,24 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="I327" s="1" t="s">
+      <c r="G327" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>564</v>
@@ -7532,38 +7539,38 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G329" s="1" t="s">
+      <c r="I329" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I330" s="1" t="s">
+      <c r="G330" s="1" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>570</v>
@@ -7574,136 +7581,136 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G332" s="1" t="s">
+      <c r="I332" s="1" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I333" s="1" t="s">
+      <c r="G333" s="1" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>576</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>102</v>
+        <v>510</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>579</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="I337" s="1" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I338" s="1" t="s">
+      <c r="G338" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>584</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D340" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I340" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>587</v>
@@ -7714,108 +7721,108 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="I342" s="1" t="s">
+      <c r="G342" s="1" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G343" s="1" t="s">
+      <c r="I343" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I344" s="1" t="s">
-        <v>271</v>
+      <c r="G344" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>595</v>
+        <v>273</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>364</v>
+        <v>596</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>316</v>
+        <v>597</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>595</v>
+        <v>366</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D348" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>599</v>
@@ -7826,10 +7833,10 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>601</v>
@@ -7840,24 +7847,24 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I351" s="1" t="s">
+      <c r="G351" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>605</v>
@@ -7868,10 +7875,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>607</v>
@@ -7882,52 +7889,52 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>609</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>269</v>
+        <v>608</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>611</v>
+        <v>392</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>612</v>
@@ -7938,10 +7945,10 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>614</v>
@@ -7952,10 +7959,10 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>616</v>
@@ -7966,136 +7973,136 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I360" s="1" t="s">
-        <v>102</v>
+      <c r="G360" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>604</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G363" s="1" t="s">
+      <c r="I363" s="1" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I364" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>297</v>
+        <v>619</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>626</v>
+        <v>299</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="I367" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I368" s="1" t="s">
+      <c r="G368" s="1" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>631</v>
@@ -8106,10 +8113,10 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>633</v>
@@ -8120,251 +8127,254 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G371" s="1" t="s">
+      <c r="I371" s="1" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="I372" s="1" t="s">
+      <c r="G372" s="1" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="I373" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I374" s="1" t="s">
-        <v>319</v>
+      <c r="G374" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>643</v>
+        <v>321</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>643</v>
+        <v>319</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>651</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>299</v>
+        <v>652</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="G383" s="1" t="s">
         <v>653</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I384" s="1" t="s">
-        <v>299</v>
+      <c r="G384" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D385" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F385" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V385" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="386" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C386" s="4" t="s">
+      <c r="F386" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="V386" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H386" s="4" t="s">
+    </row>
+    <row r="387" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="J386" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
+      <c r="H387" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F387" s="2" t="s">
+      <c r="J387" s="4" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D388" s="2" t="s">
-        <v>2</v>
+      <c r="F388" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,88 +8385,85 @@
         <v>26</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>195</v>
+        <v>664</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,10 +8474,10 @@
         <v>26</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,43 +8488,40 @@
         <v>26</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>663</v>
+        <v>195</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C399" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G399" s="1" t="s">
-        <v>147</v>
+      <c r="F399" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>123</v>
@@ -8526,15 +8530,15 @@
         <v>34</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>668</v>
+        <v>147</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>123</v>
@@ -8545,10 +8549,13 @@
       <c r="D401" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="G401" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>123</v>
@@ -8557,15 +8564,12 @@
         <v>34</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G402" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>123</v>
@@ -8576,10 +8580,13 @@
       <c r="D403" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="G403" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>123</v>
@@ -8588,12 +8595,12 @@
         <v>34</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>123</v>
@@ -8602,15 +8609,12 @@
         <v>34</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>147</v>
+        <v>670</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>123</v>
@@ -8619,7 +8623,7 @@
         <v>34</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>147</v>
@@ -8627,7 +8631,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>123</v>
@@ -8636,12 +8640,15 @@
         <v>34</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>123</v>
@@ -8650,12 +8657,12 @@
         <v>34</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>123</v>
@@ -8664,15 +8671,12 @@
         <v>34</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>123</v>
@@ -8689,7 +8693,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>123</v>
@@ -8698,58 +8702,40 @@
         <v>34</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B413" s="4"/>
       <c r="C413" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
-      <c r="G413" s="5"/>
-      <c r="H413" s="4" t="s">
+      <c r="D413" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="I413" s="4"/>
-      <c r="J413" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="K413" s="4"/>
-      <c r="L413" s="4"/>
-      <c r="M413" s="4"/>
-      <c r="N413" s="4"/>
-      <c r="O413" s="4"/>
-      <c r="P413" s="4"/>
-      <c r="Q413" s="4"/>
-      <c r="R413" s="4"/>
-      <c r="S413" s="4"/>
-      <c r="T413" s="4"/>
-      <c r="U413" s="4"/>
-      <c r="V413" s="4"/>
-      <c r="W413" s="4"/>
-      <c r="X413" s="4"/>
-      <c r="Y413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="1" t="s">
@@ -8784,7 +8770,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="1" t="s">
@@ -8819,7 +8805,7 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="1" t="s">
@@ -8854,7 +8840,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="1" t="s">
@@ -8888,22 +8874,43 @@
       <c r="Y417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B418" s="4"/>
+      <c r="C418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="I418" s="4"/>
+      <c r="J418" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>692</v>
-      </c>
+      <c r="K418" s="4"/>
+      <c r="L418" s="4"/>
+      <c r="M418" s="4"/>
+      <c r="N418" s="4"/>
+      <c r="O418" s="4"/>
+      <c r="P418" s="4"/>
+      <c r="Q418" s="4"/>
+      <c r="R418" s="4"/>
+      <c r="S418" s="4"/>
+      <c r="T418" s="4"/>
+      <c r="U418" s="4"/>
+      <c r="V418" s="4"/>
+      <c r="W418" s="4"/>
+      <c r="X418" s="4"/>
+      <c r="Y418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>693</v>
@@ -8914,118 +8921,115 @@
       <c r="D419" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G419" s="1" t="s">
-        <v>696</v>
-      </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D420" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G420" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D421" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E421" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="G421" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D422" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G422" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D423" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F423" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D424" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F424" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D425" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>714</v>
@@ -9034,160 +9038,166 @@
         <v>1</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>694</v>
+        <v>715</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D428" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E428" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D429" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E429" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D430" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G430" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D431" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E431" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="E431" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D432" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E432" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F433" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H433" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D434" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="H434" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>152</v>
+        <v>692</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,10 +9207,7 @@
       <c r="C436" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D436" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="G436" s="1" t="s">
+      <c r="E436" s="1" t="s">
         <v>742</v>
       </c>
     </row>
@@ -9211,8 +9218,11 @@
       <c r="C437" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="D437" s="2" t="s">
         <v>743</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9223,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,7 +9244,7 @@
         <v>26</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9244,10 +9254,7 @@
       <c r="C440" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D440" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="G440" s="1" t="s">
+      <c r="E440" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -9272,8 +9279,11 @@
       <c r="C442" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="D442" s="2" t="s">
         <v>750</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,7 +9294,7 @@
         <v>26</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,7 +9305,7 @@
         <v>26</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,10 +9315,7 @@
       <c r="C445" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D445" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G445" s="1" t="s">
+      <c r="E445" s="1" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9319,8 +9326,11 @@
       <c r="C446" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>2</v>
+      <c r="D446" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,26 +9341,23 @@
         <v>26</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>755</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>756</v>
+        <v>152</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="E448" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>26</v>
@@ -9364,85 +9371,85 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D450" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="E450" s="1" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D452" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="E452" s="1" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C453" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D453" s="2" t="s">
+      <c r="E453" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H454" s="2" t="s">
-        <v>94</v>
+        <v>767</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>123</v>
+        <v>766</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>669</v>
+        <v>93</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>123</v>
@@ -9451,12 +9458,12 @@
         <v>34</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9465,12 +9472,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9479,15 +9486,12 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9496,7 +9500,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G459" s="1" t="s">
         <v>102</v>
@@ -9504,7 +9508,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9513,7 +9517,7 @@
         <v>34</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>102</v>
@@ -9521,7 +9525,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9530,12 +9534,15 @@
         <v>34</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>675</v>
+        <v>771</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>123</v>
@@ -9544,15 +9551,12 @@
         <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G462" s="1" t="s">
-        <v>102</v>
+        <v>677</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>123</v>
@@ -9561,7 +9565,7 @@
         <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>102</v>
@@ -9569,35 +9573,35 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>773</v>
       </c>
+      <c r="G464" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>123</v>
+        <v>774</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D465" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="466" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>123</v>
@@ -9606,35 +9610,15 @@
         <v>34</v>
       </c>
       <c r="D466" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="H466" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E466" s="0"/>
-      <c r="F466" s="0"/>
-      <c r="G466" s="0"/>
-      <c r="H466" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I466" s="0"/>
-      <c r="J466" s="0"/>
-      <c r="K466" s="0"/>
-      <c r="L466" s="0"/>
-      <c r="M466" s="0"/>
-      <c r="N466" s="0"/>
-      <c r="O466" s="0"/>
-      <c r="P466" s="0"/>
-      <c r="Q466" s="0"/>
-      <c r="R466" s="0"/>
-      <c r="S466" s="0"/>
-      <c r="T466" s="0"/>
-      <c r="U466" s="0"/>
-      <c r="V466" s="0"/>
-      <c r="W466" s="0"/>
-      <c r="X466" s="0"/>
-      <c r="Y466" s="0"/>
-    </row>
-    <row r="467" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="467" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>123</v>
@@ -9643,12 +9627,14 @@
         <v>34</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E467" s="0"/>
       <c r="F467" s="0"/>
       <c r="G467" s="0"/>
-      <c r="H467" s="0"/>
+      <c r="H467" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I467" s="0"/>
       <c r="J467" s="0"/>
       <c r="K467" s="0"/>
@@ -9669,7 +9655,7 @@
     </row>
     <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>123</v>
@@ -9678,7 +9664,7 @@
         <v>34</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E468" s="0"/>
       <c r="F468" s="0"/>
@@ -9704,7 +9690,7 @@
     </row>
     <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>123</v>
@@ -9713,7 +9699,7 @@
         <v>34</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E469" s="0"/>
       <c r="F469" s="0"/>
@@ -9739,14 +9725,16 @@
     </row>
     <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B470" s="0"/>
+        <v>774</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C470" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>776</v>
+        <v>670</v>
       </c>
       <c r="E470" s="0"/>
       <c r="F470" s="0"/>
@@ -9812,13 +9800,11 @@
         <v>26</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>589</v>
+        <v>780</v>
       </c>
       <c r="E472" s="0"/>
       <c r="F472" s="0"/>
-      <c r="G472" s="1" t="s">
-        <v>780</v>
-      </c>
+      <c r="G472" s="0"/>
       <c r="H472" s="0"/>
       <c r="I472" s="0"/>
       <c r="J472" s="0"/>
@@ -9838,7 +9824,41 @@
       <c r="X472" s="0"/>
       <c r="Y472" s="0"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B473" s="0"/>
+      <c r="C473" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E473" s="0"/>
+      <c r="F473" s="0"/>
+      <c r="G473" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H473" s="0"/>
+      <c r="I473" s="0"/>
+      <c r="J473" s="0"/>
+      <c r="K473" s="0"/>
+      <c r="L473" s="0"/>
+      <c r="M473" s="0"/>
+      <c r="N473" s="0"/>
+      <c r="O473" s="0"/>
+      <c r="P473" s="0"/>
+      <c r="Q473" s="0"/>
+      <c r="R473" s="0"/>
+      <c r="S473" s="0"/>
+      <c r="T473" s="0"/>
+      <c r="U473" s="0"/>
+      <c r="V473" s="0"/>
+      <c r="W473" s="0"/>
+      <c r="X473" s="0"/>
+      <c r="Y473" s="0"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
+++ b/clodoo/build/lib.linux-x86_64-2.7/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="784">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -757,21 +757,21 @@
     <t xml:space="preserve">product.product_uom_kgm</t>
   </si>
   <si>
+    <t xml:space="preserve">uom.product_uom_kgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">uom.product_uom_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">product.product_uom_ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.product_uom_kgm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.product_uom_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.product_uom_ton</t>
-  </si>
-  <si>
     <t xml:space="preserve">account.data_account_type_asset</t>
   </si>
   <si>
@@ -2294,6 +2294,9 @@
   </si>
   <si>
     <t xml:space="preserve">zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify_email</t>
   </si>
   <si>
     <t xml:space="preserve">res.users</t>
@@ -2378,7 +2381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2436,6 +2439,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2479,7 +2489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2501,6 +2511,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2583,13 +2597,13 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N117" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N112" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="J136" activeCellId="0" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
@@ -9355,115 +9369,136 @@
         <v>757</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
+    <row r="449" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J449" s="4"/>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+      <c r="M449" s="4"/>
+      <c r="N449" s="4"/>
+      <c r="O449" s="4"/>
+      <c r="P449" s="4"/>
+      <c r="Q449" s="4"/>
+      <c r="R449" s="4"/>
+      <c r="S449" s="4"/>
+      <c r="T449" s="4"/>
+      <c r="U449" s="4"/>
+      <c r="V449" s="4"/>
+      <c r="W449" s="4"/>
+      <c r="X449" s="4"/>
+      <c r="Y449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D450" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E450" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="E451" s="1" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="E453" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E454" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H455" s="2" t="s">
-        <v>94</v>
+        <v>768</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>123</v>
+        <v>767</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>671</v>
+        <v>93</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9472,12 +9507,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9486,12 +9521,12 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9500,15 +9535,12 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G459" s="1" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9525,7 +9557,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9542,7 +9574,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>123</v>
@@ -9551,12 +9583,15 @@
         <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>677</v>
+        <v>772</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>123</v>
@@ -9565,15 +9600,12 @@
         <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="G463" s="1" t="s">
-        <v>102</v>
+        <v>677</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>123</v>
@@ -9590,35 +9622,35 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C465" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>775</v>
+      <c r="G465" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>123</v>
+        <v>775</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="H466" s="2" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="467" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>123</v>
@@ -9627,13 +9659,13 @@
         <v>34</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>672</v>
+        <v>777</v>
       </c>
       <c r="E467" s="0"/>
       <c r="F467" s="0"/>
       <c r="G467" s="0"/>
       <c r="H467" s="2" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
       <c r="I467" s="0"/>
       <c r="J467" s="0"/>
@@ -9655,7 +9687,7 @@
     </row>
     <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>123</v>
@@ -9664,12 +9696,14 @@
         <v>34</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E468" s="0"/>
       <c r="F468" s="0"/>
       <c r="G468" s="0"/>
-      <c r="H468" s="0"/>
+      <c r="H468" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I468" s="0"/>
       <c r="J468" s="0"/>
       <c r="K468" s="0"/>
@@ -9690,7 +9724,7 @@
     </row>
     <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>123</v>
@@ -9699,7 +9733,7 @@
         <v>34</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E469" s="0"/>
       <c r="F469" s="0"/>
@@ -9725,7 +9759,7 @@
     </row>
     <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>123</v>
@@ -9734,7 +9768,7 @@
         <v>34</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E470" s="0"/>
       <c r="F470" s="0"/>
@@ -9760,14 +9794,16 @@
     </row>
     <row r="471" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B471" s="0"/>
+        <v>775</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C471" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="E471" s="0"/>
       <c r="F471" s="0"/>
@@ -9793,14 +9829,14 @@
     </row>
     <row r="472" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B472" s="0"/>
       <c r="C472" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E472" s="0"/>
       <c r="F472" s="0"/>
@@ -9826,20 +9862,18 @@
     </row>
     <row r="473" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B473" s="0"/>
       <c r="C473" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>591</v>
+        <v>781</v>
       </c>
       <c r="E473" s="0"/>
       <c r="F473" s="0"/>
-      <c r="G473" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="G473" s="0"/>
       <c r="H473" s="0"/>
       <c r="I473" s="0"/>
       <c r="J473" s="0"/>
@@ -9859,6 +9893,41 @@
       <c r="X473" s="0"/>
       <c r="Y473" s="0"/>
     </row>
+    <row r="474" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B474" s="0"/>
+      <c r="C474" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E474" s="0"/>
+      <c r="F474" s="0"/>
+      <c r="G474" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H474" s="0"/>
+      <c r="I474" s="0"/>
+      <c r="J474" s="0"/>
+      <c r="K474" s="0"/>
+      <c r="L474" s="0"/>
+      <c r="M474" s="0"/>
+      <c r="N474" s="0"/>
+      <c r="O474" s="0"/>
+      <c r="P474" s="0"/>
+      <c r="Q474" s="0"/>
+      <c r="R474" s="0"/>
+      <c r="S474" s="0"/>
+      <c r="T474" s="0"/>
+      <c r="U474" s="0"/>
+      <c r="V474" s="0"/>
+      <c r="W474" s="0"/>
+      <c r="X474" s="0"/>
+      <c r="Y474" s="0"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
